--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3199815.60965564</v>
+        <v>3197438.982708274</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8306796.407531548</v>
+        <v>8306796.407531549</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>72.94942429078201</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>37.40802781600963</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>77.27614072340589</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>79.41653965146601</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -874,10 +874,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>82.78267808229599</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>196.6997841156786</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,19 +1054,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>14.29880131109846</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>196.4017961483595</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>215.1445980039596</v>
       </c>
       <c r="I8" t="n">
-        <v>46.93693955568823</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>43.38105623675333</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>196.4017961483597</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1771,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>14.92158678358339</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>145.285756796903</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2008,16 +2008,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>40.53421095546916</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>116.4636264596498</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>92.58181139165723</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>48.85497112745768</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>94.05355358057945</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>141.4513012076587</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>880.6454412161675</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>511.6829242757557</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>511.6829242757557</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>511.6829242757557</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>100.6970194861482</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>89.03267325084111</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>89.03267325084111</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4367,13 +4367,13 @@
         <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1270.784773191979</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>880.6454412161675</v>
+        <v>918.0161179218651</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057899</v>
@@ -4410,25 +4410,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>299.2648838844846</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>593.9684409159563</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217532</v>
+        <v>957.2304598751764</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O3" t="n">
-        <v>1675.63996629486</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P3" t="n">
-        <v>2238.100841080695</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
-        <v>2561.393271046732</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131.4655134886758</v>
+        <v>297.2899590611446</v>
       </c>
       <c r="C4" t="n">
-        <v>131.4655134886758</v>
+        <v>297.2899590611446</v>
       </c>
       <c r="D4" t="n">
-        <v>131.4655134886758</v>
+        <v>297.2899590611446</v>
       </c>
       <c r="E4" t="n">
-        <v>131.4655134886758</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F4" t="n">
-        <v>131.4655134886758</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>131.4655134886758</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
         <v>51.2467865680031</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269233</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1124.349301773071</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>869.6648135671838</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="W4" t="n">
-        <v>580.2476435302233</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="X4" t="n">
-        <v>352.2580926322059</v>
+        <v>699.7310030349145</v>
       </c>
       <c r="Y4" t="n">
-        <v>131.4655134886758</v>
+        <v>478.9384238913843</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1586.913505738324</v>
+        <v>909.6965460670931</v>
       </c>
       <c r="C5" t="n">
-        <v>1217.950988797912</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="D5" t="n">
-        <v>859.685290191162</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
@@ -4595,22 +4595,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2363.652677778257</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2363.652677778257</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>2363.652677778257</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W5" t="n">
-        <v>2363.652677778257</v>
+        <v>1669.762144392295</v>
       </c>
       <c r="X5" t="n">
-        <v>2363.652677778257</v>
+        <v>1296.296386131215</v>
       </c>
       <c r="Y5" t="n">
-        <v>1973.513345802446</v>
+        <v>1296.296386131215</v>
       </c>
     </row>
     <row r="6">
@@ -4644,19 +4644,19 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495378</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M6" t="n">
-        <v>1352.031492328576</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O6" t="n">
         <v>2199.840679460312</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.2127024906389</v>
+        <v>383.7931243196344</v>
       </c>
       <c r="C7" t="n">
-        <v>349.2765195627319</v>
+        <v>383.7931243196344</v>
       </c>
       <c r="D7" t="n">
-        <v>199.1598801503962</v>
+        <v>233.6764849072987</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>233.6764849072987</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
         <v>51.2467865680031</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1048.115628253778</v>
       </c>
       <c r="V7" t="n">
-        <v>1438.060467399387</v>
+        <v>793.4311400478915</v>
       </c>
       <c r="W7" t="n">
-        <v>1148.643297362426</v>
+        <v>793.4311400478915</v>
       </c>
       <c r="X7" t="n">
-        <v>920.6537464644088</v>
+        <v>565.4415891498742</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.8611673208786</v>
+        <v>565.4415891498742</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>861.3216348137591</v>
+        <v>1445.965582893149</v>
       </c>
       <c r="C8" t="n">
-        <v>861.3216348137591</v>
+        <v>1077.003065952737</v>
       </c>
       <c r="D8" t="n">
-        <v>503.0559362070086</v>
+        <v>1077.003065952737</v>
       </c>
       <c r="E8" t="n">
-        <v>117.2676836087644</v>
+        <v>691.2148133544931</v>
       </c>
       <c r="F8" t="n">
-        <v>110.3221828595609</v>
+        <v>684.2693126052897</v>
       </c>
       <c r="G8" t="n">
-        <v>98.65783662425386</v>
+        <v>268.5645623295785</v>
       </c>
       <c r="H8" t="n">
-        <v>98.65783662425386</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362824</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664336</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320765</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.926725050651</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X8" t="n">
-        <v>1251.460966789571</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y8" t="n">
-        <v>861.3216348137591</v>
+        <v>1445.965582893149</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.2127024906389</v>
+        <v>349.6600800990968</v>
       </c>
       <c r="C10" t="n">
-        <v>349.276519562732</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1598801503962</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800312</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800312</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485138</v>
       </c>
       <c r="V10" t="n">
-        <v>1438.060467399387</v>
+        <v>570.452659242627</v>
       </c>
       <c r="W10" t="n">
-        <v>1148.643297362426</v>
+        <v>570.452659242627</v>
       </c>
       <c r="X10" t="n">
-        <v>920.6537464644088</v>
+        <v>570.452659242627</v>
       </c>
       <c r="Y10" t="n">
-        <v>699.8611673208786</v>
+        <v>349.6600800990968</v>
       </c>
     </row>
     <row r="11">
@@ -5033,55 +5033,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452613</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,55 +5270,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191926</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191926</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969299</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5513,19 +5513,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5656,13 +5656,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,25 +5829,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,10 +5984,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6072,22 +6072,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6242,34 +6242,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,19 +6297,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M27" t="n">
         <v>680.0291294438176</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6543,16 +6543,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6716,34 +6716,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6783,22 +6783,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6835,25 +6835,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>639.6425904082686</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7138,7 +7138,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>821.2910552385083</v>
       </c>
     </row>
     <row r="38">
@@ -7157,52 +7157,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466572</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>963.466348583466</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7546,19 +7546,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7652,16 +7652,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.9556134883062555</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>21.89339468985633</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,22 +8292,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>129.7511347056858</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>186.5911984019046</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878349</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>240.4465442417436</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23659,10 +23659,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>130.4994612393479</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>72.11969353038523</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23896,16 +23896,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>105.8997516911</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>32.15184655856254</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>126.0028419604376</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>118.3918499711702</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,16 +25084,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>124.5310997715153</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>84.25835418137842</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>16.31315520054598</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>732861.1892126809</v>
+        <v>732861.189212681</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>732861.1892126809</v>
+        <v>732861.189212681</v>
       </c>
     </row>
     <row r="5">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>713572.6023089032</v>
+        <v>713572.6023089034</v>
       </c>
     </row>
     <row r="15">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312476</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="F2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="G2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="I2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="H2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="J2" t="n">
-        <v>706253.2747287554</v>
-      </c>
       <c r="K2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="L2" t="n">
         <v>706253.2747287555</v>
@@ -26347,13 +26347,13 @@
         <v>706253.2747287554</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287549</v>
+        <v>706253.2747287551</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731967</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731949</v>
+        <v>8117.312426731966</v>
       </c>
       <c r="G4" t="n">
+        <v>8117.312426731997</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8117.312426731967</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8117.312426731982</v>
+      </c>
+      <c r="J4" t="n">
         <v>8117.312426731974</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8117.312426731984</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8117.312426731974</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8117.31242673204</v>
       </c>
       <c r="K4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732038</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731987</v>
+        <v>8117.312426732038</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426732039</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731986</v>
+        <v>8117.312426731977</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26473,7 +26473,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26525,43 +26525,43 @@
         <v>491155.7759295395</v>
       </c>
       <c r="D6" t="n">
-        <v>491155.7759295396</v>
+        <v>491155.7759295397</v>
       </c>
       <c r="E6" t="n">
-        <v>89527.99085357063</v>
+        <v>89493.25292813496</v>
       </c>
       <c r="F6" t="n">
-        <v>597013.4324781161</v>
+        <v>596978.6945526808</v>
       </c>
       <c r="G6" t="n">
-        <v>597013.4324781167</v>
+        <v>596978.6945526807</v>
       </c>
       <c r="H6" t="n">
-        <v>597013.4324781161</v>
+        <v>596978.6945526808</v>
       </c>
       <c r="I6" t="n">
-        <v>597013.4324781165</v>
+        <v>596978.6945526806</v>
       </c>
       <c r="J6" t="n">
-        <v>429408.2546681338</v>
+        <v>429373.5167426981</v>
       </c>
       <c r="K6" t="n">
-        <v>597013.4324781164</v>
+        <v>596978.6945526809</v>
       </c>
       <c r="L6" t="n">
-        <v>597013.4324781165</v>
+        <v>596978.6945526807</v>
       </c>
       <c r="M6" t="n">
-        <v>464406.1387491895</v>
+        <v>464371.4008237539</v>
       </c>
       <c r="N6" t="n">
-        <v>597013.4324781165</v>
+        <v>596978.6945526806</v>
       </c>
       <c r="O6" t="n">
-        <v>597013.4324781158</v>
+        <v>596978.6945526805</v>
       </c>
       <c r="P6" t="n">
-        <v>597013.4324781165</v>
+        <v>596978.6945526809</v>
       </c>
     </row>
   </sheetData>
@@ -26793,13 +26793,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>309.7844173726986</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>28.30188485646084</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,16 +27543,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>69.15782192316328</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>67.83496950366283</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27585,7 +27585,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,10 +27594,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>282.4902136887115</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>9.958400864555188</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,19 +27774,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>131.1222467118328</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>55.73584717546854</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>85.87395455844575</v>
       </c>
       <c r="I8" t="n">
-        <v>18.77297311678226</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,10 +27907,10 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>123.8657648618745</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,10 +28026,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>55.73584717546831</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>433.9798411722581</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.6580975439405</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,10 +32327,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32549,13 +32549,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32567,10 +32567,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32792,10 +32792,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,16 +33023,16 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>242.2322097768141</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33187,7 +33187,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M29" t="n">
         <v>965.6463440175675</v>
@@ -33263,19 +33263,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663279</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33968,19 +33968,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>167.4835451665588</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33992,10 +33992,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>287.9685048518523</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34778,7 +34778,7 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>187.5431097317911</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
@@ -34799,7 +34799,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0.955613488306449</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>520.9482342985597</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>522.0158803980277</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313197</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>538.1269048795938</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820405</v>
@@ -35270,10 +35270,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>291.8458072502398</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,10 +35975,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36215,10 +36215,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402482</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36911,19 +36911,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>91.80490927281524</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37616,19 +37616,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>25.34951124454049</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37640,10 +37640,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37874,13 +37874,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
